--- a/storage/archivos/InformaciÃ³n de ganado por ASOCEBU.xlsx
+++ b/storage/archivos/InformaciÃ³n de ganado por ASOCEBU.xlsx
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M9" sqref="A9:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
